--- a/protected/modules/excel/templates/BrechasAmpliadoECTemplate.xlsx
+++ b/protected/modules/excel/templates/BrechasAmpliadoECTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teto\Dropbox\Proyecto SEC\temp\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
@@ -12,9 +17,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$K$9</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,16 +32,10 @@
     <t>Impreso:</t>
   </si>
   <si>
-    <t>Analisis de Brechas</t>
-  </si>
-  <si>
     <t>Fecha inicio</t>
   </si>
   <si>
     <t>Fecha Final</t>
-  </si>
-  <si>
-    <t>Cedula</t>
   </si>
   <si>
     <t>Puesto</t>
@@ -46,12 +45,6 @@
   </si>
   <si>
     <t>Evaluador</t>
-  </si>
-  <si>
-    <t>Fecha Evaluacion</t>
-  </si>
-  <si>
-    <t>Calificacion</t>
   </si>
   <si>
     <t>Proceso</t>
@@ -93,20 +86,32 @@
     <t>Competencia</t>
   </si>
   <si>
-    <t>Calificacion de Competencia</t>
+    <t>Informe Ampliado de Evaluaciones de Competencias</t>
   </si>
   <si>
-    <t>Informe Ampliado de Evaluaciones de Competencias</t>
+    <t>Cédula</t>
+  </si>
+  <si>
+    <t>Análisis de Brechas</t>
+  </si>
+  <si>
+    <t>Fecha Evaluación</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Calificación de Competencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,22 +529,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T610"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="5" width="30.7109375" customWidth="1"/>
@@ -554,20 +559,20 @@
     <col min="15" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6">
         <f ca="1">NOW()</f>
-        <v>41915.266259374999</v>
+        <v>42021.933308333333</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="21">
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -581,9 +586,9 @@
       <c r="K2" s="8"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -597,9 +602,9 @@
       <c r="K3" s="9"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="10">
         <v>41640</v>
@@ -612,9 +617,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10">
         <v>41640</v>
@@ -629,7 +634,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -642,69 +647,69 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:20" ht="38.25">
+    <row r="7" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="P7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="Q7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="R7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="S7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -726,7 +731,7 @@
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -748,7 +753,7 @@
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -770,7 +775,7 @@
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -792,7 +797,7 @@
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -814,7 +819,7 @@
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -836,7 +841,7 @@
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -858,7 +863,7 @@
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -880,7 +885,7 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -902,7 +907,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -924,7 +929,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -946,7 +951,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -968,7 +973,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -990,7 +995,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1012,7 +1017,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1034,7 +1039,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1056,7 +1061,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1078,7 +1083,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1100,7 +1105,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1122,7 +1127,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1144,7 +1149,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1166,7 +1171,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1188,7 +1193,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1210,7 +1215,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1232,7 +1237,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1254,7 +1259,7 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1276,7 +1281,7 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1298,7 +1303,7 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1320,7 +1325,7 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1342,7 +1347,7 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1364,7 +1369,7 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1386,7 +1391,7 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1408,7 +1413,7 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1430,7 +1435,7 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1452,7 +1457,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1474,7 +1479,7 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1496,7 +1501,7 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1518,7 +1523,7 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1540,7 +1545,7 @@
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1562,7 +1567,7 @@
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1584,7 +1589,7 @@
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1606,7 +1611,7 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -1628,7 +1633,7 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1650,7 +1655,7 @@
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1672,7 +1677,7 @@
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1694,7 +1699,7 @@
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1716,7 +1721,7 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1738,7 +1743,7 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -1760,7 +1765,7 @@
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1782,7 +1787,7 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -1804,7 +1809,7 @@
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1826,7 +1831,7 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1848,7 +1853,7 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1870,7 +1875,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -1892,7 +1897,7 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -1914,7 +1919,7 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -1936,7 +1941,7 @@
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -1958,7 +1963,7 @@
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -1980,7 +1985,7 @@
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2002,7 +2007,7 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2024,7 +2029,7 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -2046,7 +2051,7 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2068,7 +2073,7 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -2090,7 +2095,7 @@
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -2112,7 +2117,7 @@
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -2134,7 +2139,7 @@
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -2156,7 +2161,7 @@
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -2178,7 +2183,7 @@
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -2200,7 +2205,7 @@
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -2222,7 +2227,7 @@
       <c r="S76" s="12"/>
       <c r="T76" s="12"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -2244,7 +2249,7 @@
       <c r="S77" s="12"/>
       <c r="T77" s="12"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -2266,7 +2271,7 @@
       <c r="S78" s="12"/>
       <c r="T78" s="12"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -2288,7 +2293,7 @@
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -2310,7 +2315,7 @@
       <c r="S80" s="12"/>
       <c r="T80" s="12"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -2332,7 +2337,7 @@
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -2354,7 +2359,7 @@
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2376,7 +2381,7 @@
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -2398,7 +2403,7 @@
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -2420,7 +2425,7 @@
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -2442,7 +2447,7 @@
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -2464,7 +2469,7 @@
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -2486,7 +2491,7 @@
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -2508,7 +2513,7 @@
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -2530,7 +2535,7 @@
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -2552,7 +2557,7 @@
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -2574,7 +2579,7 @@
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -2596,7 +2601,7 @@
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -2618,7 +2623,7 @@
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -2640,7 +2645,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -2662,7 +2667,7 @@
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -2684,7 +2689,7 @@
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -2706,7 +2711,7 @@
       <c r="S98" s="12"/>
       <c r="T98" s="12"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -2728,7 +2733,7 @@
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -2750,7 +2755,7 @@
       <c r="S100" s="12"/>
       <c r="T100" s="12"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -2772,7 +2777,7 @@
       <c r="S101" s="12"/>
       <c r="T101" s="12"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -2794,7 +2799,7 @@
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -2816,7 +2821,7 @@
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -2838,7 +2843,7 @@
       <c r="S104" s="12"/>
       <c r="T104" s="12"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -2860,7 +2865,7 @@
       <c r="S105" s="12"/>
       <c r="T105" s="12"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -2882,7 +2887,7 @@
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -2904,7 +2909,7 @@
       <c r="S107" s="12"/>
       <c r="T107" s="12"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -2926,7 +2931,7 @@
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -2948,7 +2953,7 @@
       <c r="S109" s="12"/>
       <c r="T109" s="12"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -2970,7 +2975,7 @@
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -2992,7 +2997,7 @@
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -3014,7 +3019,7 @@
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3036,7 +3041,7 @@
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3058,7 +3063,7 @@
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3080,7 +3085,7 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3102,7 +3107,7 @@
       <c r="S116" s="12"/>
       <c r="T116" s="12"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -3124,7 +3129,7 @@
       <c r="S117" s="12"/>
       <c r="T117" s="12"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -3146,7 +3151,7 @@
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -3168,7 +3173,7 @@
       <c r="S119" s="12"/>
       <c r="T119" s="12"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -3190,7 +3195,7 @@
       <c r="S120" s="12"/>
       <c r="T120" s="12"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -3212,7 +3217,7 @@
       <c r="S121" s="12"/>
       <c r="T121" s="12"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -3234,7 +3239,7 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -3256,7 +3261,7 @@
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -3278,7 +3283,7 @@
       <c r="S124" s="12"/>
       <c r="T124" s="12"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -3300,7 +3305,7 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -3322,7 +3327,7 @@
       <c r="S126" s="12"/>
       <c r="T126" s="12"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -3344,7 +3349,7 @@
       <c r="S127" s="12"/>
       <c r="T127" s="12"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -3366,7 +3371,7 @@
       <c r="S128" s="12"/>
       <c r="T128" s="12"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -3388,7 +3393,7 @@
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -3410,7 +3415,7 @@
       <c r="S130" s="12"/>
       <c r="T130" s="12"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -3432,7 +3437,7 @@
       <c r="S131" s="12"/>
       <c r="T131" s="12"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -3454,7 +3459,7 @@
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -3476,7 +3481,7 @@
       <c r="S133" s="12"/>
       <c r="T133" s="12"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -3498,7 +3503,7 @@
       <c r="S134" s="12"/>
       <c r="T134" s="12"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -3520,7 +3525,7 @@
       <c r="S135" s="12"/>
       <c r="T135" s="12"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -3542,7 +3547,7 @@
       <c r="S136" s="12"/>
       <c r="T136" s="12"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -3564,7 +3569,7 @@
       <c r="S137" s="12"/>
       <c r="T137" s="12"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -3586,7 +3591,7 @@
       <c r="S138" s="12"/>
       <c r="T138" s="12"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -3608,7 +3613,7 @@
       <c r="S139" s="12"/>
       <c r="T139" s="12"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -3630,7 +3635,7 @@
       <c r="S140" s="12"/>
       <c r="T140" s="12"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -3652,7 +3657,7 @@
       <c r="S141" s="12"/>
       <c r="T141" s="12"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -3674,7 +3679,7 @@
       <c r="S142" s="12"/>
       <c r="T142" s="12"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -3696,7 +3701,7 @@
       <c r="S143" s="12"/>
       <c r="T143" s="12"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -3718,7 +3723,7 @@
       <c r="S144" s="12"/>
       <c r="T144" s="12"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -3740,7 +3745,7 @@
       <c r="S145" s="12"/>
       <c r="T145" s="12"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -3762,7 +3767,7 @@
       <c r="S146" s="12"/>
       <c r="T146" s="12"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -3784,7 +3789,7 @@
       <c r="S147" s="12"/>
       <c r="T147" s="12"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -3806,7 +3811,7 @@
       <c r="S148" s="12"/>
       <c r="T148" s="12"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -3828,7 +3833,7 @@
       <c r="S149" s="12"/>
       <c r="T149" s="12"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -3850,7 +3855,7 @@
       <c r="S150" s="12"/>
       <c r="T150" s="12"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -3872,7 +3877,7 @@
       <c r="S151" s="12"/>
       <c r="T151" s="12"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -3894,7 +3899,7 @@
       <c r="S152" s="12"/>
       <c r="T152" s="12"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -3916,7 +3921,7 @@
       <c r="S153" s="12"/>
       <c r="T153" s="12"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -3938,7 +3943,7 @@
       <c r="S154" s="12"/>
       <c r="T154" s="12"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -3960,7 +3965,7 @@
       <c r="S155" s="12"/>
       <c r="T155" s="12"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -3982,7 +3987,7 @@
       <c r="S156" s="12"/>
       <c r="T156" s="12"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -4004,7 +4009,7 @@
       <c r="S157" s="12"/>
       <c r="T157" s="12"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -4026,7 +4031,7 @@
       <c r="S158" s="12"/>
       <c r="T158" s="12"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -4048,7 +4053,7 @@
       <c r="S159" s="12"/>
       <c r="T159" s="12"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -4070,7 +4075,7 @@
       <c r="S160" s="12"/>
       <c r="T160" s="12"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -4092,7 +4097,7 @@
       <c r="S161" s="12"/>
       <c r="T161" s="12"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -4114,7 +4119,7 @@
       <c r="S162" s="12"/>
       <c r="T162" s="12"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -4136,7 +4141,7 @@
       <c r="S163" s="12"/>
       <c r="T163" s="12"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -4158,7 +4163,7 @@
       <c r="S164" s="12"/>
       <c r="T164" s="12"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -4180,7 +4185,7 @@
       <c r="S165" s="12"/>
       <c r="T165" s="12"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -4202,7 +4207,7 @@
       <c r="S166" s="12"/>
       <c r="T166" s="12"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -4224,7 +4229,7 @@
       <c r="S167" s="12"/>
       <c r="T167" s="12"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -4246,7 +4251,7 @@
       <c r="S168" s="12"/>
       <c r="T168" s="12"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -4268,7 +4273,7 @@
       <c r="S169" s="12"/>
       <c r="T169" s="12"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -4290,7 +4295,7 @@
       <c r="S170" s="12"/>
       <c r="T170" s="12"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -4312,7 +4317,7 @@
       <c r="S171" s="12"/>
       <c r="T171" s="12"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -4334,7 +4339,7 @@
       <c r="S172" s="12"/>
       <c r="T172" s="12"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -4356,7 +4361,7 @@
       <c r="S173" s="12"/>
       <c r="T173" s="12"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -4378,7 +4383,7 @@
       <c r="S174" s="12"/>
       <c r="T174" s="12"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -4400,7 +4405,7 @@
       <c r="S175" s="12"/>
       <c r="T175" s="12"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -4422,7 +4427,7 @@
       <c r="S176" s="12"/>
       <c r="T176" s="12"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -4444,7 +4449,7 @@
       <c r="S177" s="12"/>
       <c r="T177" s="12"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -4466,7 +4471,7 @@
       <c r="S178" s="12"/>
       <c r="T178" s="12"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -4488,7 +4493,7 @@
       <c r="S179" s="12"/>
       <c r="T179" s="12"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -4510,7 +4515,7 @@
       <c r="S180" s="12"/>
       <c r="T180" s="12"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -4532,7 +4537,7 @@
       <c r="S181" s="12"/>
       <c r="T181" s="12"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -4554,7 +4559,7 @@
       <c r="S182" s="12"/>
       <c r="T182" s="12"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -4576,7 +4581,7 @@
       <c r="S183" s="12"/>
       <c r="T183" s="12"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -4598,7 +4603,7 @@
       <c r="S184" s="12"/>
       <c r="T184" s="12"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -4620,7 +4625,7 @@
       <c r="S185" s="12"/>
       <c r="T185" s="12"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -4642,7 +4647,7 @@
       <c r="S186" s="12"/>
       <c r="T186" s="12"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -4664,7 +4669,7 @@
       <c r="S187" s="12"/>
       <c r="T187" s="12"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -4686,7 +4691,7 @@
       <c r="S188" s="12"/>
       <c r="T188" s="12"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -4708,7 +4713,7 @@
       <c r="S189" s="12"/>
       <c r="T189" s="12"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -4730,7 +4735,7 @@
       <c r="S190" s="12"/>
       <c r="T190" s="12"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -4752,7 +4757,7 @@
       <c r="S191" s="12"/>
       <c r="T191" s="12"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -4774,7 +4779,7 @@
       <c r="S192" s="12"/>
       <c r="T192" s="12"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -4796,7 +4801,7 @@
       <c r="S193" s="12"/>
       <c r="T193" s="12"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -4818,7 +4823,7 @@
       <c r="S194" s="12"/>
       <c r="T194" s="12"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -4840,7 +4845,7 @@
       <c r="S195" s="12"/>
       <c r="T195" s="12"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -4862,7 +4867,7 @@
       <c r="S196" s="12"/>
       <c r="T196" s="12"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -4884,7 +4889,7 @@
       <c r="S197" s="12"/>
       <c r="T197" s="12"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -4906,7 +4911,7 @@
       <c r="S198" s="12"/>
       <c r="T198" s="12"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -4928,7 +4933,7 @@
       <c r="S199" s="12"/>
       <c r="T199" s="12"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -4950,7 +4955,7 @@
       <c r="S200" s="12"/>
       <c r="T200" s="12"/>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -4972,7 +4977,7 @@
       <c r="S201" s="12"/>
       <c r="T201" s="12"/>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -4994,7 +4999,7 @@
       <c r="S202" s="12"/>
       <c r="T202" s="12"/>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -5016,7 +5021,7 @@
       <c r="S203" s="12"/>
       <c r="T203" s="12"/>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -5038,7 +5043,7 @@
       <c r="S204" s="12"/>
       <c r="T204" s="12"/>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -5060,7 +5065,7 @@
       <c r="S205" s="12"/>
       <c r="T205" s="12"/>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -5082,7 +5087,7 @@
       <c r="S206" s="12"/>
       <c r="T206" s="12"/>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -5104,7 +5109,7 @@
       <c r="S207" s="12"/>
       <c r="T207" s="12"/>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -5126,7 +5131,7 @@
       <c r="S208" s="12"/>
       <c r="T208" s="12"/>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -5148,7 +5153,7 @@
       <c r="S209" s="12"/>
       <c r="T209" s="12"/>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -5170,7 +5175,7 @@
       <c r="S210" s="12"/>
       <c r="T210" s="12"/>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -5192,7 +5197,7 @@
       <c r="S211" s="12"/>
       <c r="T211" s="12"/>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -5214,7 +5219,7 @@
       <c r="S212" s="12"/>
       <c r="T212" s="12"/>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -5236,7 +5241,7 @@
       <c r="S213" s="12"/>
       <c r="T213" s="12"/>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -5258,7 +5263,7 @@
       <c r="S214" s="12"/>
       <c r="T214" s="12"/>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -5280,7 +5285,7 @@
       <c r="S215" s="12"/>
       <c r="T215" s="12"/>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -5302,7 +5307,7 @@
       <c r="S216" s="12"/>
       <c r="T216" s="12"/>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -5324,7 +5329,7 @@
       <c r="S217" s="12"/>
       <c r="T217" s="12"/>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -5346,7 +5351,7 @@
       <c r="S218" s="12"/>
       <c r="T218" s="12"/>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -5368,7 +5373,7 @@
       <c r="S219" s="12"/>
       <c r="T219" s="12"/>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -5390,7 +5395,7 @@
       <c r="S220" s="12"/>
       <c r="T220" s="12"/>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -5412,7 +5417,7 @@
       <c r="S221" s="12"/>
       <c r="T221" s="12"/>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -5434,7 +5439,7 @@
       <c r="S222" s="12"/>
       <c r="T222" s="12"/>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -5456,7 +5461,7 @@
       <c r="S223" s="12"/>
       <c r="T223" s="12"/>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -5478,7 +5483,7 @@
       <c r="S224" s="12"/>
       <c r="T224" s="12"/>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -5500,7 +5505,7 @@
       <c r="S225" s="12"/>
       <c r="T225" s="12"/>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -5522,7 +5527,7 @@
       <c r="S226" s="12"/>
       <c r="T226" s="12"/>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -5544,7 +5549,7 @@
       <c r="S227" s="12"/>
       <c r="T227" s="12"/>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -5566,7 +5571,7 @@
       <c r="S228" s="12"/>
       <c r="T228" s="12"/>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -5588,7 +5593,7 @@
       <c r="S229" s="12"/>
       <c r="T229" s="12"/>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -5610,7 +5615,7 @@
       <c r="S230" s="12"/>
       <c r="T230" s="12"/>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -5632,7 +5637,7 @@
       <c r="S231" s="12"/>
       <c r="T231" s="12"/>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -5654,7 +5659,7 @@
       <c r="S232" s="12"/>
       <c r="T232" s="12"/>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -5676,7 +5681,7 @@
       <c r="S233" s="12"/>
       <c r="T233" s="12"/>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -5698,7 +5703,7 @@
       <c r="S234" s="12"/>
       <c r="T234" s="12"/>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -5720,7 +5725,7 @@
       <c r="S235" s="12"/>
       <c r="T235" s="12"/>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -5742,7 +5747,7 @@
       <c r="S236" s="12"/>
       <c r="T236" s="12"/>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -5764,7 +5769,7 @@
       <c r="S237" s="12"/>
       <c r="T237" s="12"/>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -5786,7 +5791,7 @@
       <c r="S238" s="12"/>
       <c r="T238" s="12"/>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -5808,7 +5813,7 @@
       <c r="S239" s="12"/>
       <c r="T239" s="12"/>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -5830,7 +5835,7 @@
       <c r="S240" s="12"/>
       <c r="T240" s="12"/>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -5852,7 +5857,7 @@
       <c r="S241" s="12"/>
       <c r="T241" s="12"/>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -5874,7 +5879,7 @@
       <c r="S242" s="12"/>
       <c r="T242" s="12"/>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -5896,7 +5901,7 @@
       <c r="S243" s="12"/>
       <c r="T243" s="12"/>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -5918,7 +5923,7 @@
       <c r="S244" s="12"/>
       <c r="T244" s="12"/>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -5940,7 +5945,7 @@
       <c r="S245" s="12"/>
       <c r="T245" s="12"/>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -5962,7 +5967,7 @@
       <c r="S246" s="12"/>
       <c r="T246" s="12"/>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -5984,7 +5989,7 @@
       <c r="S247" s="12"/>
       <c r="T247" s="12"/>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -6006,7 +6011,7 @@
       <c r="S248" s="12"/>
       <c r="T248" s="12"/>
     </row>
-    <row r="249" spans="1:20">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -6028,7 +6033,7 @@
       <c r="S249" s="12"/>
       <c r="T249" s="12"/>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -6050,7 +6055,7 @@
       <c r="S250" s="12"/>
       <c r="T250" s="12"/>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -6072,7 +6077,7 @@
       <c r="S251" s="12"/>
       <c r="T251" s="12"/>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -6094,7 +6099,7 @@
       <c r="S252" s="12"/>
       <c r="T252" s="12"/>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -6116,7 +6121,7 @@
       <c r="S253" s="12"/>
       <c r="T253" s="12"/>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -6138,7 +6143,7 @@
       <c r="S254" s="12"/>
       <c r="T254" s="12"/>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -6160,7 +6165,7 @@
       <c r="S255" s="12"/>
       <c r="T255" s="12"/>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -6182,7 +6187,7 @@
       <c r="S256" s="12"/>
       <c r="T256" s="12"/>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -6204,7 +6209,7 @@
       <c r="S257" s="12"/>
       <c r="T257" s="12"/>
     </row>
-    <row r="258" spans="1:20">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -6226,7 +6231,7 @@
       <c r="S258" s="12"/>
       <c r="T258" s="12"/>
     </row>
-    <row r="259" spans="1:20">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -6248,7 +6253,7 @@
       <c r="S259" s="12"/>
       <c r="T259" s="12"/>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -6270,7 +6275,7 @@
       <c r="S260" s="12"/>
       <c r="T260" s="12"/>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -6292,7 +6297,7 @@
       <c r="S261" s="12"/>
       <c r="T261" s="12"/>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -6314,7 +6319,7 @@
       <c r="S262" s="12"/>
       <c r="T262" s="12"/>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -6336,7 +6341,7 @@
       <c r="S263" s="12"/>
       <c r="T263" s="12"/>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -6358,7 +6363,7 @@
       <c r="S264" s="12"/>
       <c r="T264" s="12"/>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -6380,7 +6385,7 @@
       <c r="S265" s="12"/>
       <c r="T265" s="12"/>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -6402,7 +6407,7 @@
       <c r="S266" s="12"/>
       <c r="T266" s="12"/>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -6424,7 +6429,7 @@
       <c r="S267" s="12"/>
       <c r="T267" s="12"/>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -6446,7 +6451,7 @@
       <c r="S268" s="12"/>
       <c r="T268" s="12"/>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -6468,7 +6473,7 @@
       <c r="S269" s="12"/>
       <c r="T269" s="12"/>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -6490,7 +6495,7 @@
       <c r="S270" s="12"/>
       <c r="T270" s="12"/>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -6512,7 +6517,7 @@
       <c r="S271" s="12"/>
       <c r="T271" s="12"/>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -6534,7 +6539,7 @@
       <c r="S272" s="12"/>
       <c r="T272" s="12"/>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -6556,7 +6561,7 @@
       <c r="S273" s="12"/>
       <c r="T273" s="12"/>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -6578,7 +6583,7 @@
       <c r="S274" s="12"/>
       <c r="T274" s="12"/>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -6600,7 +6605,7 @@
       <c r="S275" s="12"/>
       <c r="T275" s="12"/>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -6622,7 +6627,7 @@
       <c r="S276" s="12"/>
       <c r="T276" s="12"/>
     </row>
-    <row r="277" spans="1:20">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -6644,7 +6649,7 @@
       <c r="S277" s="12"/>
       <c r="T277" s="12"/>
     </row>
-    <row r="278" spans="1:20">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -6666,7 +6671,7 @@
       <c r="S278" s="12"/>
       <c r="T278" s="12"/>
     </row>
-    <row r="279" spans="1:20">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -6688,7 +6693,7 @@
       <c r="S279" s="12"/>
       <c r="T279" s="12"/>
     </row>
-    <row r="280" spans="1:20">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -6710,7 +6715,7 @@
       <c r="S280" s="12"/>
       <c r="T280" s="12"/>
     </row>
-    <row r="281" spans="1:20">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -6732,7 +6737,7 @@
       <c r="S281" s="12"/>
       <c r="T281" s="12"/>
     </row>
-    <row r="282" spans="1:20">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -6754,7 +6759,7 @@
       <c r="S282" s="12"/>
       <c r="T282" s="12"/>
     </row>
-    <row r="283" spans="1:20">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -6776,7 +6781,7 @@
       <c r="S283" s="12"/>
       <c r="T283" s="12"/>
     </row>
-    <row r="284" spans="1:20">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -6798,7 +6803,7 @@
       <c r="S284" s="12"/>
       <c r="T284" s="12"/>
     </row>
-    <row r="285" spans="1:20">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -6820,7 +6825,7 @@
       <c r="S285" s="12"/>
       <c r="T285" s="12"/>
     </row>
-    <row r="286" spans="1:20">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -6842,7 +6847,7 @@
       <c r="S286" s="12"/>
       <c r="T286" s="12"/>
     </row>
-    <row r="287" spans="1:20">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -6864,7 +6869,7 @@
       <c r="S287" s="12"/>
       <c r="T287" s="12"/>
     </row>
-    <row r="288" spans="1:20">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -6886,7 +6891,7 @@
       <c r="S288" s="12"/>
       <c r="T288" s="12"/>
     </row>
-    <row r="289" spans="1:20">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -6908,7 +6913,7 @@
       <c r="S289" s="12"/>
       <c r="T289" s="12"/>
     </row>
-    <row r="290" spans="1:20">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -6930,7 +6935,7 @@
       <c r="S290" s="12"/>
       <c r="T290" s="12"/>
     </row>
-    <row r="291" spans="1:20">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -6952,7 +6957,7 @@
       <c r="S291" s="12"/>
       <c r="T291" s="12"/>
     </row>
-    <row r="292" spans="1:20">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -6974,7 +6979,7 @@
       <c r="S292" s="12"/>
       <c r="T292" s="12"/>
     </row>
-    <row r="293" spans="1:20">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -6996,7 +7001,7 @@
       <c r="S293" s="12"/>
       <c r="T293" s="12"/>
     </row>
-    <row r="294" spans="1:20">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -7018,7 +7023,7 @@
       <c r="S294" s="12"/>
       <c r="T294" s="12"/>
     </row>
-    <row r="295" spans="1:20">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -7040,7 +7045,7 @@
       <c r="S295" s="12"/>
       <c r="T295" s="12"/>
     </row>
-    <row r="296" spans="1:20">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -7062,7 +7067,7 @@
       <c r="S296" s="12"/>
       <c r="T296" s="12"/>
     </row>
-    <row r="297" spans="1:20">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -7084,7 +7089,7 @@
       <c r="S297" s="12"/>
       <c r="T297" s="12"/>
     </row>
-    <row r="298" spans="1:20">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -7106,7 +7111,7 @@
       <c r="S298" s="12"/>
       <c r="T298" s="12"/>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -7128,7 +7133,7 @@
       <c r="S299" s="12"/>
       <c r="T299" s="12"/>
     </row>
-    <row r="300" spans="1:20">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -7150,7 +7155,7 @@
       <c r="S300" s="12"/>
       <c r="T300" s="12"/>
     </row>
-    <row r="301" spans="1:20">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -7172,7 +7177,7 @@
       <c r="S301" s="12"/>
       <c r="T301" s="12"/>
     </row>
-    <row r="302" spans="1:20">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -7194,7 +7199,7 @@
       <c r="S302" s="12"/>
       <c r="T302" s="12"/>
     </row>
-    <row r="303" spans="1:20">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -7216,7 +7221,7 @@
       <c r="S303" s="12"/>
       <c r="T303" s="12"/>
     </row>
-    <row r="304" spans="1:20">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -7238,7 +7243,7 @@
       <c r="S304" s="12"/>
       <c r="T304" s="12"/>
     </row>
-    <row r="305" spans="1:20">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -7260,7 +7265,7 @@
       <c r="S305" s="12"/>
       <c r="T305" s="12"/>
     </row>
-    <row r="306" spans="1:20">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -7282,7 +7287,7 @@
       <c r="S306" s="12"/>
       <c r="T306" s="12"/>
     </row>
-    <row r="307" spans="1:20">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -7304,7 +7309,7 @@
       <c r="S307" s="12"/>
       <c r="T307" s="12"/>
     </row>
-    <row r="308" spans="1:20">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -7326,7 +7331,7 @@
       <c r="S308" s="12"/>
       <c r="T308" s="12"/>
     </row>
-    <row r="309" spans="1:20">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -7348,7 +7353,7 @@
       <c r="S309" s="12"/>
       <c r="T309" s="12"/>
     </row>
-    <row r="310" spans="1:20">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -7370,7 +7375,7 @@
       <c r="S310" s="12"/>
       <c r="T310" s="12"/>
     </row>
-    <row r="311" spans="1:20">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -7392,7 +7397,7 @@
       <c r="S311" s="12"/>
       <c r="T311" s="12"/>
     </row>
-    <row r="312" spans="1:20">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -7414,7 +7419,7 @@
       <c r="S312" s="12"/>
       <c r="T312" s="12"/>
     </row>
-    <row r="313" spans="1:20">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -7436,7 +7441,7 @@
       <c r="S313" s="12"/>
       <c r="T313" s="12"/>
     </row>
-    <row r="314" spans="1:20">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -7458,7 +7463,7 @@
       <c r="S314" s="12"/>
       <c r="T314" s="12"/>
     </row>
-    <row r="315" spans="1:20">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -7480,7 +7485,7 @@
       <c r="S315" s="12"/>
       <c r="T315" s="12"/>
     </row>
-    <row r="316" spans="1:20">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -7502,7 +7507,7 @@
       <c r="S316" s="12"/>
       <c r="T316" s="12"/>
     </row>
-    <row r="317" spans="1:20">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -7524,7 +7529,7 @@
       <c r="S317" s="12"/>
       <c r="T317" s="12"/>
     </row>
-    <row r="318" spans="1:20">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -7546,7 +7551,7 @@
       <c r="S318" s="12"/>
       <c r="T318" s="12"/>
     </row>
-    <row r="319" spans="1:20">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -7568,7 +7573,7 @@
       <c r="S319" s="12"/>
       <c r="T319" s="12"/>
     </row>
-    <row r="320" spans="1:20">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -7590,7 +7595,7 @@
       <c r="S320" s="12"/>
       <c r="T320" s="12"/>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -7612,7 +7617,7 @@
       <c r="S321" s="12"/>
       <c r="T321" s="12"/>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -7634,7 +7639,7 @@
       <c r="S322" s="12"/>
       <c r="T322" s="12"/>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -7656,7 +7661,7 @@
       <c r="S323" s="12"/>
       <c r="T323" s="12"/>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -7678,7 +7683,7 @@
       <c r="S324" s="12"/>
       <c r="T324" s="12"/>
     </row>
-    <row r="325" spans="1:20">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -7700,7 +7705,7 @@
       <c r="S325" s="12"/>
       <c r="T325" s="12"/>
     </row>
-    <row r="326" spans="1:20">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -7722,7 +7727,7 @@
       <c r="S326" s="12"/>
       <c r="T326" s="12"/>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -7744,7 +7749,7 @@
       <c r="S327" s="12"/>
       <c r="T327" s="12"/>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -7766,7 +7771,7 @@
       <c r="S328" s="12"/>
       <c r="T328" s="12"/>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -7788,7 +7793,7 @@
       <c r="S329" s="12"/>
       <c r="T329" s="12"/>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -7810,7 +7815,7 @@
       <c r="S330" s="12"/>
       <c r="T330" s="12"/>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -7832,7 +7837,7 @@
       <c r="S331" s="12"/>
       <c r="T331" s="12"/>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -7854,7 +7859,7 @@
       <c r="S332" s="12"/>
       <c r="T332" s="12"/>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -7876,7 +7881,7 @@
       <c r="S333" s="12"/>
       <c r="T333" s="12"/>
     </row>
-    <row r="334" spans="1:20">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -7898,7 +7903,7 @@
       <c r="S334" s="12"/>
       <c r="T334" s="12"/>
     </row>
-    <row r="335" spans="1:20">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -7920,7 +7925,7 @@
       <c r="S335" s="12"/>
       <c r="T335" s="12"/>
     </row>
-    <row r="336" spans="1:20">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -7942,7 +7947,7 @@
       <c r="S336" s="12"/>
       <c r="T336" s="12"/>
     </row>
-    <row r="337" spans="1:20">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -7964,7 +7969,7 @@
       <c r="S337" s="12"/>
       <c r="T337" s="12"/>
     </row>
-    <row r="338" spans="1:20">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -7986,7 +7991,7 @@
       <c r="S338" s="12"/>
       <c r="T338" s="12"/>
     </row>
-    <row r="339" spans="1:20">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -8008,7 +8013,7 @@
       <c r="S339" s="12"/>
       <c r="T339" s="12"/>
     </row>
-    <row r="340" spans="1:20">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -8030,7 +8035,7 @@
       <c r="S340" s="12"/>
       <c r="T340" s="12"/>
     </row>
-    <row r="341" spans="1:20">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -8052,7 +8057,7 @@
       <c r="S341" s="12"/>
       <c r="T341" s="12"/>
     </row>
-    <row r="342" spans="1:20">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -8074,7 +8079,7 @@
       <c r="S342" s="12"/>
       <c r="T342" s="12"/>
     </row>
-    <row r="343" spans="1:20">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -8096,7 +8101,7 @@
       <c r="S343" s="12"/>
       <c r="T343" s="12"/>
     </row>
-    <row r="344" spans="1:20">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -8118,7 +8123,7 @@
       <c r="S344" s="12"/>
       <c r="T344" s="12"/>
     </row>
-    <row r="345" spans="1:20">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -8140,7 +8145,7 @@
       <c r="S345" s="12"/>
       <c r="T345" s="12"/>
     </row>
-    <row r="346" spans="1:20">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -8162,7 +8167,7 @@
       <c r="S346" s="12"/>
       <c r="T346" s="12"/>
     </row>
-    <row r="347" spans="1:20">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -8184,7 +8189,7 @@
       <c r="S347" s="12"/>
       <c r="T347" s="12"/>
     </row>
-    <row r="348" spans="1:20">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -8206,7 +8211,7 @@
       <c r="S348" s="12"/>
       <c r="T348" s="12"/>
     </row>
-    <row r="349" spans="1:20">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -8228,7 +8233,7 @@
       <c r="S349" s="12"/>
       <c r="T349" s="12"/>
     </row>
-    <row r="350" spans="1:20">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -8250,7 +8255,7 @@
       <c r="S350" s="12"/>
       <c r="T350" s="12"/>
     </row>
-    <row r="351" spans="1:20">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -8272,7 +8277,7 @@
       <c r="S351" s="12"/>
       <c r="T351" s="12"/>
     </row>
-    <row r="352" spans="1:20">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -8294,7 +8299,7 @@
       <c r="S352" s="12"/>
       <c r="T352" s="12"/>
     </row>
-    <row r="353" spans="1:20">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -8316,7 +8321,7 @@
       <c r="S353" s="12"/>
       <c r="T353" s="12"/>
     </row>
-    <row r="354" spans="1:20">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -8338,7 +8343,7 @@
       <c r="S354" s="12"/>
       <c r="T354" s="12"/>
     </row>
-    <row r="355" spans="1:20">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -8360,7 +8365,7 @@
       <c r="S355" s="12"/>
       <c r="T355" s="12"/>
     </row>
-    <row r="356" spans="1:20">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -8382,7 +8387,7 @@
       <c r="S356" s="12"/>
       <c r="T356" s="12"/>
     </row>
-    <row r="357" spans="1:20">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -8404,7 +8409,7 @@
       <c r="S357" s="12"/>
       <c r="T357" s="12"/>
     </row>
-    <row r="358" spans="1:20">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -8426,7 +8431,7 @@
       <c r="S358" s="12"/>
       <c r="T358" s="12"/>
     </row>
-    <row r="359" spans="1:20">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -8448,7 +8453,7 @@
       <c r="S359" s="12"/>
       <c r="T359" s="12"/>
     </row>
-    <row r="360" spans="1:20">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -8470,7 +8475,7 @@
       <c r="S360" s="12"/>
       <c r="T360" s="12"/>
     </row>
-    <row r="361" spans="1:20">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -8492,7 +8497,7 @@
       <c r="S361" s="12"/>
       <c r="T361" s="12"/>
     </row>
-    <row r="362" spans="1:20">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -8514,7 +8519,7 @@
       <c r="S362" s="12"/>
       <c r="T362" s="12"/>
     </row>
-    <row r="363" spans="1:20">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -8536,7 +8541,7 @@
       <c r="S363" s="12"/>
       <c r="T363" s="12"/>
     </row>
-    <row r="364" spans="1:20">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -8558,7 +8563,7 @@
       <c r="S364" s="12"/>
       <c r="T364" s="12"/>
     </row>
-    <row r="365" spans="1:20">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -8580,7 +8585,7 @@
       <c r="S365" s="12"/>
       <c r="T365" s="12"/>
     </row>
-    <row r="366" spans="1:20">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -8602,7 +8607,7 @@
       <c r="S366" s="12"/>
       <c r="T366" s="12"/>
     </row>
-    <row r="367" spans="1:20">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -8624,7 +8629,7 @@
       <c r="S367" s="12"/>
       <c r="T367" s="12"/>
     </row>
-    <row r="368" spans="1:20">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -8646,7 +8651,7 @@
       <c r="S368" s="12"/>
       <c r="T368" s="12"/>
     </row>
-    <row r="369" spans="1:20">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -8668,7 +8673,7 @@
       <c r="S369" s="12"/>
       <c r="T369" s="12"/>
     </row>
-    <row r="370" spans="1:20">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -8690,7 +8695,7 @@
       <c r="S370" s="12"/>
       <c r="T370" s="12"/>
     </row>
-    <row r="371" spans="1:20">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -8712,7 +8717,7 @@
       <c r="S371" s="12"/>
       <c r="T371" s="12"/>
     </row>
-    <row r="372" spans="1:20">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -8734,7 +8739,7 @@
       <c r="S372" s="12"/>
       <c r="T372" s="12"/>
     </row>
-    <row r="373" spans="1:20">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -8756,7 +8761,7 @@
       <c r="S373" s="12"/>
       <c r="T373" s="12"/>
     </row>
-    <row r="374" spans="1:20">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -8778,7 +8783,7 @@
       <c r="S374" s="12"/>
       <c r="T374" s="12"/>
     </row>
-    <row r="375" spans="1:20">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -8800,7 +8805,7 @@
       <c r="S375" s="12"/>
       <c r="T375" s="12"/>
     </row>
-    <row r="376" spans="1:20">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -8822,7 +8827,7 @@
       <c r="S376" s="12"/>
       <c r="T376" s="12"/>
     </row>
-    <row r="377" spans="1:20">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -8844,7 +8849,7 @@
       <c r="S377" s="12"/>
       <c r="T377" s="12"/>
     </row>
-    <row r="378" spans="1:20">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -8866,7 +8871,7 @@
       <c r="S378" s="12"/>
       <c r="T378" s="12"/>
     </row>
-    <row r="379" spans="1:20">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -8888,7 +8893,7 @@
       <c r="S379" s="12"/>
       <c r="T379" s="12"/>
     </row>
-    <row r="380" spans="1:20">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -8910,7 +8915,7 @@
       <c r="S380" s="12"/>
       <c r="T380" s="12"/>
     </row>
-    <row r="381" spans="1:20">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -8932,7 +8937,7 @@
       <c r="S381" s="12"/>
       <c r="T381" s="12"/>
     </row>
-    <row r="382" spans="1:20">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -8954,7 +8959,7 @@
       <c r="S382" s="12"/>
       <c r="T382" s="12"/>
     </row>
-    <row r="383" spans="1:20">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -8976,7 +8981,7 @@
       <c r="S383" s="12"/>
       <c r="T383" s="12"/>
     </row>
-    <row r="384" spans="1:20">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -8998,7 +9003,7 @@
       <c r="S384" s="12"/>
       <c r="T384" s="12"/>
     </row>
-    <row r="385" spans="1:20">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -9020,7 +9025,7 @@
       <c r="S385" s="12"/>
       <c r="T385" s="12"/>
     </row>
-    <row r="386" spans="1:20">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -9042,7 +9047,7 @@
       <c r="S386" s="12"/>
       <c r="T386" s="12"/>
     </row>
-    <row r="387" spans="1:20">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -9064,7 +9069,7 @@
       <c r="S387" s="12"/>
       <c r="T387" s="12"/>
     </row>
-    <row r="388" spans="1:20">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -9086,7 +9091,7 @@
       <c r="S388" s="12"/>
       <c r="T388" s="12"/>
     </row>
-    <row r="389" spans="1:20">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -9108,7 +9113,7 @@
       <c r="S389" s="12"/>
       <c r="T389" s="12"/>
     </row>
-    <row r="390" spans="1:20">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -9130,7 +9135,7 @@
       <c r="S390" s="12"/>
       <c r="T390" s="12"/>
     </row>
-    <row r="391" spans="1:20">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -9152,7 +9157,7 @@
       <c r="S391" s="12"/>
       <c r="T391" s="12"/>
     </row>
-    <row r="392" spans="1:20">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -9174,7 +9179,7 @@
       <c r="S392" s="12"/>
       <c r="T392" s="12"/>
     </row>
-    <row r="393" spans="1:20">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -9196,7 +9201,7 @@
       <c r="S393" s="12"/>
       <c r="T393" s="12"/>
     </row>
-    <row r="394" spans="1:20">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -9218,7 +9223,7 @@
       <c r="S394" s="12"/>
       <c r="T394" s="12"/>
     </row>
-    <row r="395" spans="1:20">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -9240,7 +9245,7 @@
       <c r="S395" s="12"/>
       <c r="T395" s="12"/>
     </row>
-    <row r="396" spans="1:20">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -9262,7 +9267,7 @@
       <c r="S396" s="12"/>
       <c r="T396" s="12"/>
     </row>
-    <row r="397" spans="1:20">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -9284,7 +9289,7 @@
       <c r="S397" s="12"/>
       <c r="T397" s="12"/>
     </row>
-    <row r="398" spans="1:20">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -9306,7 +9311,7 @@
       <c r="S398" s="12"/>
       <c r="T398" s="12"/>
     </row>
-    <row r="399" spans="1:20">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -9328,7 +9333,7 @@
       <c r="S399" s="12"/>
       <c r="T399" s="12"/>
     </row>
-    <row r="400" spans="1:20">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -9350,7 +9355,7 @@
       <c r="S400" s="12"/>
       <c r="T400" s="12"/>
     </row>
-    <row r="401" spans="1:20">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -9372,7 +9377,7 @@
       <c r="S401" s="12"/>
       <c r="T401" s="12"/>
     </row>
-    <row r="402" spans="1:20">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -9394,7 +9399,7 @@
       <c r="S402" s="12"/>
       <c r="T402" s="12"/>
     </row>
-    <row r="403" spans="1:20">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -9416,7 +9421,7 @@
       <c r="S403" s="12"/>
       <c r="T403" s="12"/>
     </row>
-    <row r="404" spans="1:20">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -9438,7 +9443,7 @@
       <c r="S404" s="12"/>
       <c r="T404" s="12"/>
     </row>
-    <row r="405" spans="1:20">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -9460,7 +9465,7 @@
       <c r="S405" s="12"/>
       <c r="T405" s="12"/>
     </row>
-    <row r="406" spans="1:20">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -9482,7 +9487,7 @@
       <c r="S406" s="12"/>
       <c r="T406" s="12"/>
     </row>
-    <row r="407" spans="1:20">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -9504,7 +9509,7 @@
       <c r="S407" s="12"/>
       <c r="T407" s="12"/>
     </row>
-    <row r="408" spans="1:20">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -9526,7 +9531,7 @@
       <c r="S408" s="12"/>
       <c r="T408" s="12"/>
     </row>
-    <row r="409" spans="1:20">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -9548,7 +9553,7 @@
       <c r="S409" s="12"/>
       <c r="T409" s="12"/>
     </row>
-    <row r="410" spans="1:20">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -9570,7 +9575,7 @@
       <c r="S410" s="12"/>
       <c r="T410" s="12"/>
     </row>
-    <row r="411" spans="1:20">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -9592,7 +9597,7 @@
       <c r="S411" s="12"/>
       <c r="T411" s="12"/>
     </row>
-    <row r="412" spans="1:20">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -9614,7 +9619,7 @@
       <c r="S412" s="12"/>
       <c r="T412" s="12"/>
     </row>
-    <row r="413" spans="1:20">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -9636,7 +9641,7 @@
       <c r="S413" s="12"/>
       <c r="T413" s="12"/>
     </row>
-    <row r="414" spans="1:20">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -9658,7 +9663,7 @@
       <c r="S414" s="12"/>
       <c r="T414" s="12"/>
     </row>
-    <row r="415" spans="1:20">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -9680,7 +9685,7 @@
       <c r="S415" s="12"/>
       <c r="T415" s="12"/>
     </row>
-    <row r="416" spans="1:20">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -9702,7 +9707,7 @@
       <c r="S416" s="12"/>
       <c r="T416" s="12"/>
     </row>
-    <row r="417" spans="1:20">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -9724,7 +9729,7 @@
       <c r="S417" s="12"/>
       <c r="T417" s="12"/>
     </row>
-    <row r="418" spans="1:20">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -9746,7 +9751,7 @@
       <c r="S418" s="12"/>
       <c r="T418" s="12"/>
     </row>
-    <row r="419" spans="1:20">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -9768,7 +9773,7 @@
       <c r="S419" s="12"/>
       <c r="T419" s="12"/>
     </row>
-    <row r="420" spans="1:20">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -9790,7 +9795,7 @@
       <c r="S420" s="12"/>
       <c r="T420" s="12"/>
     </row>
-    <row r="421" spans="1:20">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -9812,7 +9817,7 @@
       <c r="S421" s="12"/>
       <c r="T421" s="12"/>
     </row>
-    <row r="422" spans="1:20">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -9834,7 +9839,7 @@
       <c r="S422" s="12"/>
       <c r="T422" s="12"/>
     </row>
-    <row r="423" spans="1:20">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -9856,7 +9861,7 @@
       <c r="S423" s="12"/>
       <c r="T423" s="12"/>
     </row>
-    <row r="424" spans="1:20">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -9878,7 +9883,7 @@
       <c r="S424" s="12"/>
       <c r="T424" s="12"/>
     </row>
-    <row r="425" spans="1:20">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -9900,7 +9905,7 @@
       <c r="S425" s="12"/>
       <c r="T425" s="12"/>
     </row>
-    <row r="426" spans="1:20">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -9922,7 +9927,7 @@
       <c r="S426" s="12"/>
       <c r="T426" s="12"/>
     </row>
-    <row r="427" spans="1:20">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -9944,7 +9949,7 @@
       <c r="S427" s="12"/>
       <c r="T427" s="12"/>
     </row>
-    <row r="428" spans="1:20">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -9966,7 +9971,7 @@
       <c r="S428" s="12"/>
       <c r="T428" s="12"/>
     </row>
-    <row r="429" spans="1:20">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -9988,7 +9993,7 @@
       <c r="S429" s="12"/>
       <c r="T429" s="12"/>
     </row>
-    <row r="430" spans="1:20">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -10010,7 +10015,7 @@
       <c r="S430" s="12"/>
       <c r="T430" s="12"/>
     </row>
-    <row r="431" spans="1:20">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -10032,7 +10037,7 @@
       <c r="S431" s="12"/>
       <c r="T431" s="12"/>
     </row>
-    <row r="432" spans="1:20">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -10054,7 +10059,7 @@
       <c r="S432" s="12"/>
       <c r="T432" s="12"/>
     </row>
-    <row r="433" spans="1:20">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -10076,7 +10081,7 @@
       <c r="S433" s="12"/>
       <c r="T433" s="12"/>
     </row>
-    <row r="434" spans="1:20">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -10098,7 +10103,7 @@
       <c r="S434" s="12"/>
       <c r="T434" s="12"/>
     </row>
-    <row r="435" spans="1:20">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -10120,7 +10125,7 @@
       <c r="S435" s="12"/>
       <c r="T435" s="12"/>
     </row>
-    <row r="436" spans="1:20">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -10142,7 +10147,7 @@
       <c r="S436" s="12"/>
       <c r="T436" s="12"/>
     </row>
-    <row r="437" spans="1:20">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -10164,7 +10169,7 @@
       <c r="S437" s="12"/>
       <c r="T437" s="12"/>
     </row>
-    <row r="438" spans="1:20">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -10186,7 +10191,7 @@
       <c r="S438" s="12"/>
       <c r="T438" s="12"/>
     </row>
-    <row r="439" spans="1:20">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -10208,7 +10213,7 @@
       <c r="S439" s="12"/>
       <c r="T439" s="12"/>
     </row>
-    <row r="440" spans="1:20">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -10230,7 +10235,7 @@
       <c r="S440" s="12"/>
       <c r="T440" s="12"/>
     </row>
-    <row r="441" spans="1:20">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -10252,7 +10257,7 @@
       <c r="S441" s="12"/>
       <c r="T441" s="12"/>
     </row>
-    <row r="442" spans="1:20">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -10274,7 +10279,7 @@
       <c r="S442" s="12"/>
       <c r="T442" s="12"/>
     </row>
-    <row r="443" spans="1:20">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -10296,7 +10301,7 @@
       <c r="S443" s="12"/>
       <c r="T443" s="12"/>
     </row>
-    <row r="444" spans="1:20">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -10318,7 +10323,7 @@
       <c r="S444" s="12"/>
       <c r="T444" s="12"/>
     </row>
-    <row r="445" spans="1:20">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -10340,7 +10345,7 @@
       <c r="S445" s="12"/>
       <c r="T445" s="12"/>
     </row>
-    <row r="446" spans="1:20">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -10362,7 +10367,7 @@
       <c r="S446" s="12"/>
       <c r="T446" s="12"/>
     </row>
-    <row r="447" spans="1:20">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -10384,7 +10389,7 @@
       <c r="S447" s="12"/>
       <c r="T447" s="12"/>
     </row>
-    <row r="448" spans="1:20">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -10406,7 +10411,7 @@
       <c r="S448" s="12"/>
       <c r="T448" s="12"/>
     </row>
-    <row r="449" spans="1:20">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -10428,7 +10433,7 @@
       <c r="S449" s="12"/>
       <c r="T449" s="12"/>
     </row>
-    <row r="450" spans="1:20">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -10450,7 +10455,7 @@
       <c r="S450" s="12"/>
       <c r="T450" s="12"/>
     </row>
-    <row r="451" spans="1:20">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -10472,7 +10477,7 @@
       <c r="S451" s="12"/>
       <c r="T451" s="12"/>
     </row>
-    <row r="452" spans="1:20">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -10494,7 +10499,7 @@
       <c r="S452" s="12"/>
       <c r="T452" s="12"/>
     </row>
-    <row r="453" spans="1:20">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -10516,7 +10521,7 @@
       <c r="S453" s="12"/>
       <c r="T453" s="12"/>
     </row>
-    <row r="454" spans="1:20">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -10538,7 +10543,7 @@
       <c r="S454" s="12"/>
       <c r="T454" s="12"/>
     </row>
-    <row r="455" spans="1:20">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -10560,7 +10565,7 @@
       <c r="S455" s="12"/>
       <c r="T455" s="12"/>
     </row>
-    <row r="456" spans="1:20">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -10582,7 +10587,7 @@
       <c r="S456" s="12"/>
       <c r="T456" s="12"/>
     </row>
-    <row r="457" spans="1:20">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -10604,7 +10609,7 @@
       <c r="S457" s="12"/>
       <c r="T457" s="12"/>
     </row>
-    <row r="458" spans="1:20">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -10626,7 +10631,7 @@
       <c r="S458" s="12"/>
       <c r="T458" s="12"/>
     </row>
-    <row r="459" spans="1:20">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -10648,7 +10653,7 @@
       <c r="S459" s="12"/>
       <c r="T459" s="12"/>
     </row>
-    <row r="460" spans="1:20">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -10670,7 +10675,7 @@
       <c r="S460" s="12"/>
       <c r="T460" s="12"/>
     </row>
-    <row r="461" spans="1:20">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -10692,7 +10697,7 @@
       <c r="S461" s="12"/>
       <c r="T461" s="12"/>
     </row>
-    <row r="462" spans="1:20">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -10714,7 +10719,7 @@
       <c r="S462" s="12"/>
       <c r="T462" s="12"/>
     </row>
-    <row r="463" spans="1:20">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -10736,7 +10741,7 @@
       <c r="S463" s="12"/>
       <c r="T463" s="12"/>
     </row>
-    <row r="464" spans="1:20">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -10758,7 +10763,7 @@
       <c r="S464" s="12"/>
       <c r="T464" s="12"/>
     </row>
-    <row r="465" spans="1:20">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -10780,7 +10785,7 @@
       <c r="S465" s="12"/>
       <c r="T465" s="12"/>
     </row>
-    <row r="466" spans="1:20">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -10802,7 +10807,7 @@
       <c r="S466" s="12"/>
       <c r="T466" s="12"/>
     </row>
-    <row r="467" spans="1:20">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -10824,7 +10829,7 @@
       <c r="S467" s="12"/>
       <c r="T467" s="12"/>
     </row>
-    <row r="468" spans="1:20">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -10846,7 +10851,7 @@
       <c r="S468" s="12"/>
       <c r="T468" s="12"/>
     </row>
-    <row r="469" spans="1:20">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -10868,7 +10873,7 @@
       <c r="S469" s="12"/>
       <c r="T469" s="12"/>
     </row>
-    <row r="470" spans="1:20">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -10890,7 +10895,7 @@
       <c r="S470" s="12"/>
       <c r="T470" s="12"/>
     </row>
-    <row r="471" spans="1:20">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -10912,7 +10917,7 @@
       <c r="S471" s="12"/>
       <c r="T471" s="12"/>
     </row>
-    <row r="472" spans="1:20">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -10934,7 +10939,7 @@
       <c r="S472" s="12"/>
       <c r="T472" s="12"/>
     </row>
-    <row r="473" spans="1:20">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -10956,7 +10961,7 @@
       <c r="S473" s="12"/>
       <c r="T473" s="12"/>
     </row>
-    <row r="474" spans="1:20">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -10978,7 +10983,7 @@
       <c r="S474" s="12"/>
       <c r="T474" s="12"/>
     </row>
-    <row r="475" spans="1:20">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -11000,7 +11005,7 @@
       <c r="S475" s="12"/>
       <c r="T475" s="12"/>
     </row>
-    <row r="476" spans="1:20">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -11022,7 +11027,7 @@
       <c r="S476" s="12"/>
       <c r="T476" s="12"/>
     </row>
-    <row r="477" spans="1:20">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -11044,7 +11049,7 @@
       <c r="S477" s="12"/>
       <c r="T477" s="12"/>
     </row>
-    <row r="478" spans="1:20">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -11066,7 +11071,7 @@
       <c r="S478" s="12"/>
       <c r="T478" s="12"/>
     </row>
-    <row r="479" spans="1:20">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -11088,7 +11093,7 @@
       <c r="S479" s="12"/>
       <c r="T479" s="12"/>
     </row>
-    <row r="480" spans="1:20">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -11110,7 +11115,7 @@
       <c r="S480" s="12"/>
       <c r="T480" s="12"/>
     </row>
-    <row r="481" spans="1:20">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -11132,7 +11137,7 @@
       <c r="S481" s="12"/>
       <c r="T481" s="12"/>
     </row>
-    <row r="482" spans="1:20">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -11154,7 +11159,7 @@
       <c r="S482" s="12"/>
       <c r="T482" s="12"/>
     </row>
-    <row r="483" spans="1:20">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -11176,7 +11181,7 @@
       <c r="S483" s="12"/>
       <c r="T483" s="12"/>
     </row>
-    <row r="484" spans="1:20">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -11198,7 +11203,7 @@
       <c r="S484" s="12"/>
       <c r="T484" s="12"/>
     </row>
-    <row r="485" spans="1:20">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -11220,7 +11225,7 @@
       <c r="S485" s="12"/>
       <c r="T485" s="12"/>
     </row>
-    <row r="486" spans="1:20">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -11242,7 +11247,7 @@
       <c r="S486" s="12"/>
       <c r="T486" s="12"/>
     </row>
-    <row r="487" spans="1:20">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -11264,7 +11269,7 @@
       <c r="S487" s="12"/>
       <c r="T487" s="12"/>
     </row>
-    <row r="488" spans="1:20">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -11286,7 +11291,7 @@
       <c r="S488" s="12"/>
       <c r="T488" s="12"/>
     </row>
-    <row r="489" spans="1:20">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -11308,7 +11313,7 @@
       <c r="S489" s="12"/>
       <c r="T489" s="12"/>
     </row>
-    <row r="490" spans="1:20">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -11330,7 +11335,7 @@
       <c r="S490" s="12"/>
       <c r="T490" s="12"/>
     </row>
-    <row r="491" spans="1:20">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -11352,7 +11357,7 @@
       <c r="S491" s="12"/>
       <c r="T491" s="12"/>
     </row>
-    <row r="492" spans="1:20">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -11374,7 +11379,7 @@
       <c r="S492" s="12"/>
       <c r="T492" s="12"/>
     </row>
-    <row r="493" spans="1:20">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -11396,7 +11401,7 @@
       <c r="S493" s="12"/>
       <c r="T493" s="12"/>
     </row>
-    <row r="494" spans="1:20">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -11418,7 +11423,7 @@
       <c r="S494" s="12"/>
       <c r="T494" s="12"/>
     </row>
-    <row r="495" spans="1:20">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -11440,7 +11445,7 @@
       <c r="S495" s="12"/>
       <c r="T495" s="12"/>
     </row>
-    <row r="496" spans="1:20">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -11462,7 +11467,7 @@
       <c r="S496" s="12"/>
       <c r="T496" s="12"/>
     </row>
-    <row r="497" spans="1:20">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -11484,7 +11489,7 @@
       <c r="S497" s="12"/>
       <c r="T497" s="12"/>
     </row>
-    <row r="498" spans="1:20">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -11506,7 +11511,7 @@
       <c r="S498" s="12"/>
       <c r="T498" s="12"/>
     </row>
-    <row r="499" spans="1:20">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -11528,7 +11533,7 @@
       <c r="S499" s="12"/>
       <c r="T499" s="12"/>
     </row>
-    <row r="500" spans="1:20">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -11550,7 +11555,7 @@
       <c r="S500" s="12"/>
       <c r="T500" s="12"/>
     </row>
-    <row r="501" spans="1:20">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -11572,7 +11577,7 @@
       <c r="S501" s="12"/>
       <c r="T501" s="12"/>
     </row>
-    <row r="502" spans="1:20">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -11594,7 +11599,7 @@
       <c r="S502" s="12"/>
       <c r="T502" s="12"/>
     </row>
-    <row r="503" spans="1:20">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -11616,7 +11621,7 @@
       <c r="S503" s="12"/>
       <c r="T503" s="12"/>
     </row>
-    <row r="504" spans="1:20">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -11638,7 +11643,7 @@
       <c r="S504" s="12"/>
       <c r="T504" s="12"/>
     </row>
-    <row r="505" spans="1:20">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -11660,7 +11665,7 @@
       <c r="S505" s="12"/>
       <c r="T505" s="12"/>
     </row>
-    <row r="506" spans="1:20">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -11682,7 +11687,7 @@
       <c r="S506" s="12"/>
       <c r="T506" s="12"/>
     </row>
-    <row r="507" spans="1:20">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -11704,7 +11709,7 @@
       <c r="S507" s="12"/>
       <c r="T507" s="12"/>
     </row>
-    <row r="508" spans="1:20">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -11726,7 +11731,7 @@
       <c r="S508" s="12"/>
       <c r="T508" s="12"/>
     </row>
-    <row r="509" spans="1:20">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -11748,7 +11753,7 @@
       <c r="S509" s="12"/>
       <c r="T509" s="12"/>
     </row>
-    <row r="510" spans="1:20">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -11770,7 +11775,7 @@
       <c r="S510" s="12"/>
       <c r="T510" s="12"/>
     </row>
-    <row r="511" spans="1:20">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -11792,7 +11797,7 @@
       <c r="S511" s="12"/>
       <c r="T511" s="12"/>
     </row>
-    <row r="512" spans="1:20">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -11814,7 +11819,7 @@
       <c r="S512" s="12"/>
       <c r="T512" s="12"/>
     </row>
-    <row r="513" spans="1:20">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -11836,7 +11841,7 @@
       <c r="S513" s="12"/>
       <c r="T513" s="12"/>
     </row>
-    <row r="514" spans="1:20">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -11858,7 +11863,7 @@
       <c r="S514" s="12"/>
       <c r="T514" s="12"/>
     </row>
-    <row r="515" spans="1:20">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -11880,7 +11885,7 @@
       <c r="S515" s="12"/>
       <c r="T515" s="12"/>
     </row>
-    <row r="516" spans="1:20">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -11902,7 +11907,7 @@
       <c r="S516" s="12"/>
       <c r="T516" s="12"/>
     </row>
-    <row r="517" spans="1:20">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -11924,7 +11929,7 @@
       <c r="S517" s="12"/>
       <c r="T517" s="12"/>
     </row>
-    <row r="518" spans="1:20">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -11946,7 +11951,7 @@
       <c r="S518" s="12"/>
       <c r="T518" s="12"/>
     </row>
-    <row r="519" spans="1:20">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -11968,7 +11973,7 @@
       <c r="S519" s="12"/>
       <c r="T519" s="12"/>
     </row>
-    <row r="520" spans="1:20">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -11990,7 +11995,7 @@
       <c r="S520" s="12"/>
       <c r="T520" s="12"/>
     </row>
-    <row r="521" spans="1:20">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -12012,7 +12017,7 @@
       <c r="S521" s="12"/>
       <c r="T521" s="12"/>
     </row>
-    <row r="522" spans="1:20">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -12034,7 +12039,7 @@
       <c r="S522" s="12"/>
       <c r="T522" s="12"/>
     </row>
-    <row r="523" spans="1:20">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -12056,7 +12061,7 @@
       <c r="S523" s="12"/>
       <c r="T523" s="12"/>
     </row>
-    <row r="524" spans="1:20">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -12078,7 +12083,7 @@
       <c r="S524" s="12"/>
       <c r="T524" s="12"/>
     </row>
-    <row r="525" spans="1:20">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -12100,7 +12105,7 @@
       <c r="S525" s="12"/>
       <c r="T525" s="12"/>
     </row>
-    <row r="526" spans="1:20">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -12122,7 +12127,7 @@
       <c r="S526" s="12"/>
       <c r="T526" s="12"/>
     </row>
-    <row r="527" spans="1:20">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -12144,7 +12149,7 @@
       <c r="S527" s="12"/>
       <c r="T527" s="12"/>
     </row>
-    <row r="528" spans="1:20">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -12166,7 +12171,7 @@
       <c r="S528" s="12"/>
       <c r="T528" s="12"/>
     </row>
-    <row r="529" spans="1:20">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -12188,7 +12193,7 @@
       <c r="S529" s="12"/>
       <c r="T529" s="12"/>
     </row>
-    <row r="530" spans="1:20">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -12210,7 +12215,7 @@
       <c r="S530" s="12"/>
       <c r="T530" s="12"/>
     </row>
-    <row r="531" spans="1:20">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -12232,7 +12237,7 @@
       <c r="S531" s="12"/>
       <c r="T531" s="12"/>
     </row>
-    <row r="532" spans="1:20">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -12254,7 +12259,7 @@
       <c r="S532" s="12"/>
       <c r="T532" s="12"/>
     </row>
-    <row r="533" spans="1:20">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -12276,7 +12281,7 @@
       <c r="S533" s="12"/>
       <c r="T533" s="12"/>
     </row>
-    <row r="534" spans="1:20">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -12298,7 +12303,7 @@
       <c r="S534" s="12"/>
       <c r="T534" s="12"/>
     </row>
-    <row r="535" spans="1:20">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -12320,7 +12325,7 @@
       <c r="S535" s="12"/>
       <c r="T535" s="12"/>
     </row>
-    <row r="536" spans="1:20">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -12342,7 +12347,7 @@
       <c r="S536" s="12"/>
       <c r="T536" s="12"/>
     </row>
-    <row r="537" spans="1:20">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -12364,7 +12369,7 @@
       <c r="S537" s="12"/>
       <c r="T537" s="12"/>
     </row>
-    <row r="538" spans="1:20">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -12386,7 +12391,7 @@
       <c r="S538" s="12"/>
       <c r="T538" s="12"/>
     </row>
-    <row r="539" spans="1:20">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -12408,7 +12413,7 @@
       <c r="S539" s="12"/>
       <c r="T539" s="12"/>
     </row>
-    <row r="540" spans="1:20">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -12430,7 +12435,7 @@
       <c r="S540" s="12"/>
       <c r="T540" s="12"/>
     </row>
-    <row r="541" spans="1:20">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -12452,7 +12457,7 @@
       <c r="S541" s="12"/>
       <c r="T541" s="12"/>
     </row>
-    <row r="542" spans="1:20">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -12474,7 +12479,7 @@
       <c r="S542" s="12"/>
       <c r="T542" s="12"/>
     </row>
-    <row r="543" spans="1:20">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -12496,7 +12501,7 @@
       <c r="S543" s="12"/>
       <c r="T543" s="12"/>
     </row>
-    <row r="544" spans="1:20">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -12518,7 +12523,7 @@
       <c r="S544" s="12"/>
       <c r="T544" s="12"/>
     </row>
-    <row r="545" spans="1:20">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -12540,7 +12545,7 @@
       <c r="S545" s="12"/>
       <c r="T545" s="12"/>
     </row>
-    <row r="546" spans="1:20">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -12562,7 +12567,7 @@
       <c r="S546" s="12"/>
       <c r="T546" s="12"/>
     </row>
-    <row r="547" spans="1:20">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -12584,7 +12589,7 @@
       <c r="S547" s="12"/>
       <c r="T547" s="12"/>
     </row>
-    <row r="548" spans="1:20">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -12606,7 +12611,7 @@
       <c r="S548" s="12"/>
       <c r="T548" s="12"/>
     </row>
-    <row r="549" spans="1:20">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -12628,7 +12633,7 @@
       <c r="S549" s="12"/>
       <c r="T549" s="12"/>
     </row>
-    <row r="550" spans="1:20">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -12650,7 +12655,7 @@
       <c r="S550" s="12"/>
       <c r="T550" s="12"/>
     </row>
-    <row r="551" spans="1:20">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -12672,7 +12677,7 @@
       <c r="S551" s="12"/>
       <c r="T551" s="12"/>
     </row>
-    <row r="552" spans="1:20">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -12694,7 +12699,7 @@
       <c r="S552" s="12"/>
       <c r="T552" s="12"/>
     </row>
-    <row r="553" spans="1:20">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -12716,7 +12721,7 @@
       <c r="S553" s="12"/>
       <c r="T553" s="12"/>
     </row>
-    <row r="554" spans="1:20">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -12738,7 +12743,7 @@
       <c r="S554" s="12"/>
       <c r="T554" s="12"/>
     </row>
-    <row r="555" spans="1:20">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -12760,7 +12765,7 @@
       <c r="S555" s="12"/>
       <c r="T555" s="12"/>
     </row>
-    <row r="556" spans="1:20">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -12782,7 +12787,7 @@
       <c r="S556" s="12"/>
       <c r="T556" s="12"/>
     </row>
-    <row r="557" spans="1:20">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -12804,7 +12809,7 @@
       <c r="S557" s="12"/>
       <c r="T557" s="12"/>
     </row>
-    <row r="558" spans="1:20">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -12826,7 +12831,7 @@
       <c r="S558" s="12"/>
       <c r="T558" s="12"/>
     </row>
-    <row r="559" spans="1:20">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -12848,7 +12853,7 @@
       <c r="S559" s="12"/>
       <c r="T559" s="12"/>
     </row>
-    <row r="560" spans="1:20">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -12870,7 +12875,7 @@
       <c r="S560" s="12"/>
       <c r="T560" s="12"/>
     </row>
-    <row r="561" spans="1:20">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -12892,7 +12897,7 @@
       <c r="S561" s="12"/>
       <c r="T561" s="12"/>
     </row>
-    <row r="562" spans="1:20">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -12914,7 +12919,7 @@
       <c r="S562" s="12"/>
       <c r="T562" s="12"/>
     </row>
-    <row r="563" spans="1:20">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -12936,7 +12941,7 @@
       <c r="S563" s="12"/>
       <c r="T563" s="12"/>
     </row>
-    <row r="564" spans="1:20">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -12958,7 +12963,7 @@
       <c r="S564" s="12"/>
       <c r="T564" s="12"/>
     </row>
-    <row r="565" spans="1:20">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -12980,7 +12985,7 @@
       <c r="S565" s="12"/>
       <c r="T565" s="12"/>
     </row>
-    <row r="566" spans="1:20">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -12993,7 +12998,7 @@
       <c r="J566" s="4"/>
       <c r="K566" s="4"/>
     </row>
-    <row r="567" spans="1:20">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -13006,7 +13011,7 @@
       <c r="J567" s="4"/>
       <c r="K567" s="4"/>
     </row>
-    <row r="568" spans="1:20">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -13019,7 +13024,7 @@
       <c r="J568" s="4"/>
       <c r="K568" s="4"/>
     </row>
-    <row r="569" spans="1:20">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -13032,7 +13037,7 @@
       <c r="J569" s="4"/>
       <c r="K569" s="4"/>
     </row>
-    <row r="570" spans="1:20">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -13045,7 +13050,7 @@
       <c r="J570" s="4"/>
       <c r="K570" s="4"/>
     </row>
-    <row r="571" spans="1:20">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -13058,7 +13063,7 @@
       <c r="J571" s="4"/>
       <c r="K571" s="4"/>
     </row>
-    <row r="572" spans="1:20">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -13071,7 +13076,7 @@
       <c r="J572" s="4"/>
       <c r="K572" s="4"/>
     </row>
-    <row r="573" spans="1:20">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -13084,7 +13089,7 @@
       <c r="J573" s="4"/>
       <c r="K573" s="4"/>
     </row>
-    <row r="574" spans="1:20">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -13097,7 +13102,7 @@
       <c r="J574" s="4"/>
       <c r="K574" s="4"/>
     </row>
-    <row r="575" spans="1:20">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -13110,7 +13115,7 @@
       <c r="J575" s="4"/>
       <c r="K575" s="4"/>
     </row>
-    <row r="576" spans="1:20">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -13123,7 +13128,7 @@
       <c r="J576" s="4"/>
       <c r="K576" s="4"/>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -13136,7 +13141,7 @@
       <c r="J577" s="4"/>
       <c r="K577" s="4"/>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -13149,7 +13154,7 @@
       <c r="J578" s="4"/>
       <c r="K578" s="4"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -13162,7 +13167,7 @@
       <c r="J579" s="4"/>
       <c r="K579" s="4"/>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -13175,7 +13180,7 @@
       <c r="J580" s="4"/>
       <c r="K580" s="4"/>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -13188,7 +13193,7 @@
       <c r="J581" s="4"/>
       <c r="K581" s="4"/>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -13201,7 +13206,7 @@
       <c r="J582" s="4"/>
       <c r="K582" s="4"/>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -13214,7 +13219,7 @@
       <c r="J583" s="4"/>
       <c r="K583" s="4"/>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -13227,7 +13232,7 @@
       <c r="J584" s="4"/>
       <c r="K584" s="4"/>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -13240,7 +13245,7 @@
       <c r="J585" s="4"/>
       <c r="K585" s="4"/>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -13253,7 +13258,7 @@
       <c r="J586" s="4"/>
       <c r="K586" s="4"/>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -13266,7 +13271,7 @@
       <c r="J587" s="4"/>
       <c r="K587" s="4"/>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -13279,7 +13284,7 @@
       <c r="J588" s="4"/>
       <c r="K588" s="4"/>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -13292,7 +13297,7 @@
       <c r="J589" s="4"/>
       <c r="K589" s="4"/>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -13305,7 +13310,7 @@
       <c r="J590" s="4"/>
       <c r="K590" s="4"/>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -13318,7 +13323,7 @@
       <c r="J591" s="4"/>
       <c r="K591" s="4"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -13331,7 +13336,7 @@
       <c r="J592" s="4"/>
       <c r="K592" s="4"/>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -13344,7 +13349,7 @@
       <c r="J593" s="4"/>
       <c r="K593" s="4"/>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -13357,7 +13362,7 @@
       <c r="J594" s="4"/>
       <c r="K594" s="4"/>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -13370,7 +13375,7 @@
       <c r="J595" s="4"/>
       <c r="K595" s="4"/>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -13383,7 +13388,7 @@
       <c r="J596" s="4"/>
       <c r="K596" s="4"/>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -13396,7 +13401,7 @@
       <c r="J597" s="4"/>
       <c r="K597" s="4"/>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -13409,7 +13414,7 @@
       <c r="J598" s="4"/>
       <c r="K598" s="4"/>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -13422,7 +13427,7 @@
       <c r="J599" s="4"/>
       <c r="K599" s="4"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -13435,7 +13440,7 @@
       <c r="J600" s="4"/>
       <c r="K600" s="4"/>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -13448,7 +13453,7 @@
       <c r="J601" s="4"/>
       <c r="K601" s="4"/>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -13461,7 +13466,7 @@
       <c r="J602" s="4"/>
       <c r="K602" s="4"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -13474,7 +13479,7 @@
       <c r="J603" s="4"/>
       <c r="K603" s="4"/>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -13487,7 +13492,7 @@
       <c r="J604" s="4"/>
       <c r="K604" s="4"/>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -13500,7 +13505,7 @@
       <c r="J605" s="4"/>
       <c r="K605" s="4"/>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -13513,7 +13518,7 @@
       <c r="J606" s="4"/>
       <c r="K606" s="4"/>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -13526,7 +13531,7 @@
       <c r="J607" s="4"/>
       <c r="K607" s="4"/>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -13539,7 +13544,7 @@
       <c r="J608" s="4"/>
       <c r="K608" s="4"/>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -13552,7 +13557,7 @@
       <c r="J609" s="4"/>
       <c r="K609" s="4"/>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
